--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SIST-UNI\ORACLE\SISTUNI-PLSQL-007\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EGCC\SISTUNI-PLSQL-007\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
   <si>
     <t>NRO</t>
   </si>
@@ -486,7 +486,8 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +533,9 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -550,7 +553,9 @@
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -568,7 +573,9 @@
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -586,7 +593,9 @@
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -604,7 +613,9 @@
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -622,7 +633,9 @@
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -640,7 +653,9 @@
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -658,7 +673,9 @@
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -676,7 +693,9 @@
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -694,7 +713,9 @@
       <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -712,7 +733,9 @@
       <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -730,7 +753,9 @@
       <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -748,7 +773,9 @@
       <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -766,7 +793,9 @@
       <c r="E15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -784,7 +813,9 @@
       <c r="E16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -802,7 +833,9 @@
       <c r="E17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -487,7 +487,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
